--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Plxna1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.4141147939881</v>
+        <v>40.38860566666667</v>
       </c>
       <c r="H2">
-        <v>33.4141147939881</v>
+        <v>121.165817</v>
       </c>
       <c r="I2">
-        <v>0.3612487112493056</v>
+        <v>0.3922794987653324</v>
       </c>
       <c r="J2">
-        <v>0.3612487112493056</v>
+        <v>0.4698483591077923</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.56101255241274</v>
+        <v>7.502293333333333</v>
       </c>
       <c r="N2">
-        <v>6.56101255241274</v>
+        <v>22.50688</v>
       </c>
       <c r="O2">
-        <v>0.08527965280525798</v>
+        <v>0.09119883294046149</v>
       </c>
       <c r="P2">
-        <v>0.08527965280525798</v>
+        <v>0.1003892655001884</v>
       </c>
       <c r="Q2">
-        <v>219.2304265911162</v>
+        <v>303.0071670356622</v>
       </c>
       <c r="R2">
-        <v>219.2304265911162</v>
+        <v>2727.06450332096</v>
       </c>
       <c r="S2">
-        <v>0.03080716467168767</v>
+        <v>0.03577543247386752</v>
       </c>
       <c r="T2">
-        <v>0.03080716467168767</v>
+        <v>0.0471677316673</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.4141147939881</v>
+        <v>40.38860566666667</v>
       </c>
       <c r="H3">
-        <v>33.4141147939881</v>
+        <v>121.165817</v>
       </c>
       <c r="I3">
-        <v>0.3612487112493056</v>
+        <v>0.3922794987653324</v>
       </c>
       <c r="J3">
-        <v>0.3612487112493056</v>
+        <v>0.4698483591077923</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>17.5415839943177</v>
+        <v>18.952812</v>
       </c>
       <c r="N3">
-        <v>17.5415839943177</v>
+        <v>56.858436</v>
       </c>
       <c r="O3">
-        <v>0.2280044704592995</v>
+        <v>0.2303927957149068</v>
       </c>
       <c r="P3">
-        <v>0.2280044704592995</v>
+        <v>0.2536103017179399</v>
       </c>
       <c r="Q3">
-        <v>586.1365012545159</v>
+        <v>765.477650142468</v>
       </c>
       <c r="R3">
-        <v>586.1365012545159</v>
+        <v>6889.298851282212</v>
       </c>
       <c r="S3">
-        <v>0.08236632111250232</v>
+        <v>0.09037837042218726</v>
       </c>
       <c r="T3">
-        <v>0.08236632111250232</v>
+        <v>0.1191583841150062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.4141147939881</v>
+        <v>40.38860566666667</v>
       </c>
       <c r="H4">
-        <v>33.4141147939881</v>
+        <v>121.165817</v>
       </c>
       <c r="I4">
-        <v>0.3612487112493056</v>
+        <v>0.3922794987653324</v>
       </c>
       <c r="J4">
-        <v>0.3612487112493056</v>
+        <v>0.4698483591077923</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.8451969088596</v>
+        <v>15.88691333333333</v>
       </c>
       <c r="N4">
-        <v>15.8451969088596</v>
+        <v>47.66074</v>
       </c>
       <c r="O4">
-        <v>0.2059549315328741</v>
+        <v>0.1931233411773987</v>
       </c>
       <c r="P4">
-        <v>0.2059549315328741</v>
+        <v>0.2125850709558787</v>
       </c>
       <c r="Q4">
-        <v>529.45322844598</v>
+        <v>641.650277880509</v>
       </c>
       <c r="R4">
-        <v>529.45322844598</v>
+        <v>5774.85250092458</v>
       </c>
       <c r="S4">
-        <v>0.07440095359168974</v>
+        <v>0.07575832747695622</v>
       </c>
       <c r="T4">
-        <v>0.07440095359168974</v>
+        <v>0.09988274675943319</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.4141147939881</v>
+        <v>40.38860566666667</v>
       </c>
       <c r="H5">
-        <v>33.4141147939881</v>
+        <v>121.165817</v>
       </c>
       <c r="I5">
-        <v>0.3612487112493056</v>
+        <v>0.3922794987653324</v>
       </c>
       <c r="J5">
-        <v>0.3612487112493056</v>
+        <v>0.4698483591077923</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.2306558167639</v>
+        <v>17.32798133333333</v>
       </c>
       <c r="N5">
-        <v>17.2306558167639</v>
+        <v>51.983944</v>
       </c>
       <c r="O5">
-        <v>0.2239630444115153</v>
+        <v>0.2106411472599626</v>
       </c>
       <c r="P5">
-        <v>0.2239630444115153</v>
+        <v>0.2318682090082199</v>
       </c>
       <c r="Q5">
-        <v>575.7471114370477</v>
+        <v>699.8530050713609</v>
       </c>
       <c r="R5">
-        <v>575.7471114370477</v>
+        <v>6298.677045642248</v>
       </c>
       <c r="S5">
-        <v>0.08090636116113091</v>
+        <v>0.08263020366649268</v>
       </c>
       <c r="T5">
-        <v>0.08090636116113091</v>
+        <v>0.1089428975317747</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.4141147939881</v>
+        <v>40.38860566666667</v>
       </c>
       <c r="H6">
-        <v>33.4141147939881</v>
+        <v>121.165817</v>
       </c>
       <c r="I6">
-        <v>0.3612487112493056</v>
+        <v>0.3922794987653324</v>
       </c>
       <c r="J6">
-        <v>0.3612487112493056</v>
+        <v>0.4698483591077923</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.756814141479</v>
+        <v>22.593041</v>
       </c>
       <c r="N6">
-        <v>19.756814141479</v>
+        <v>45.186082</v>
       </c>
       <c r="O6">
-        <v>0.256797900791053</v>
+        <v>0.2746438829072707</v>
       </c>
       <c r="P6">
-        <v>0.256797900791053</v>
+        <v>0.2015471528177732</v>
       </c>
       <c r="Q6">
-        <v>660.1564556868667</v>
+        <v>912.5014237598324</v>
       </c>
       <c r="R6">
-        <v>660.1564556868667</v>
+        <v>5475.008542558994</v>
       </c>
       <c r="S6">
-        <v>0.09276791071229494</v>
+        <v>0.1077371647258288</v>
       </c>
       <c r="T6">
-        <v>0.09276791071229494</v>
+        <v>0.09469659903427817</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.71710162142608</v>
+        <v>9.523506666666668</v>
       </c>
       <c r="H7">
-        <v>8.71710162142608</v>
+        <v>28.57052</v>
       </c>
       <c r="I7">
-        <v>0.09424285952162893</v>
+        <v>0.09249827668033554</v>
       </c>
       <c r="J7">
-        <v>0.09424285952162893</v>
+        <v>0.1107887709027403</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.56101255241274</v>
+        <v>7.502293333333333</v>
       </c>
       <c r="N7">
-        <v>6.56101255241274</v>
+        <v>22.50688</v>
       </c>
       <c r="O7">
-        <v>0.08527965280525798</v>
+        <v>0.09119883294046149</v>
       </c>
       <c r="P7">
-        <v>0.08527965280525798</v>
+        <v>0.1003892655001884</v>
       </c>
       <c r="Q7">
-        <v>57.19301315883396</v>
+        <v>71.4481405752889</v>
       </c>
       <c r="R7">
-        <v>57.19301315883396</v>
+        <v>643.0332651776</v>
       </c>
       <c r="S7">
-        <v>0.008036998339379217</v>
+        <v>0.008435734882250506</v>
       </c>
       <c r="T7">
-        <v>0.008036998339379217</v>
+        <v>0.01112200333659474</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.71710162142608</v>
+        <v>9.523506666666668</v>
       </c>
       <c r="H8">
-        <v>8.71710162142608</v>
+        <v>28.57052</v>
       </c>
       <c r="I8">
-        <v>0.09424285952162893</v>
+        <v>0.09249827668033554</v>
       </c>
       <c r="J8">
-        <v>0.09424285952162893</v>
+        <v>0.1107887709027403</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.5415839943177</v>
+        <v>18.952812</v>
       </c>
       <c r="N8">
-        <v>17.5415839943177</v>
+        <v>56.858436</v>
       </c>
       <c r="O8">
-        <v>0.2280044704592995</v>
+        <v>0.2303927957149068</v>
       </c>
       <c r="P8">
-        <v>0.2280044704592995</v>
+        <v>0.2536103017179399</v>
       </c>
       <c r="Q8">
-        <v>152.9117702792486</v>
+        <v>180.49723143408</v>
       </c>
       <c r="R8">
-        <v>152.9117702792486</v>
+        <v>1624.47508290672</v>
       </c>
       <c r="S8">
-        <v>0.02148779327979916</v>
+        <v>0.02131093656319347</v>
       </c>
       <c r="T8">
-        <v>0.02148779327979916</v>
+        <v>0.0280971736156037</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.71710162142608</v>
+        <v>9.523506666666668</v>
       </c>
       <c r="H9">
-        <v>8.71710162142608</v>
+        <v>28.57052</v>
       </c>
       <c r="I9">
-        <v>0.09424285952162893</v>
+        <v>0.09249827668033554</v>
       </c>
       <c r="J9">
-        <v>0.09424285952162893</v>
+        <v>0.1107887709027403</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.8451969088596</v>
+        <v>15.88691333333333</v>
       </c>
       <c r="N9">
-        <v>15.8451969088596</v>
+        <v>47.66074</v>
       </c>
       <c r="O9">
-        <v>0.2059549315328741</v>
+        <v>0.1931233411773987</v>
       </c>
       <c r="P9">
-        <v>0.2059549315328741</v>
+        <v>0.2125850709558787</v>
       </c>
       <c r="Q9">
-        <v>138.1241916660355</v>
+        <v>151.2991250427556</v>
       </c>
       <c r="R9">
-        <v>138.1241916660355</v>
+        <v>1361.6921253848</v>
       </c>
       <c r="S9">
-        <v>0.01940978168023936</v>
+        <v>0.01786357624565786</v>
       </c>
       <c r="T9">
-        <v>0.01940978168023936</v>
+        <v>0.02355203872347365</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.71710162142608</v>
+        <v>9.523506666666668</v>
       </c>
       <c r="H10">
-        <v>8.71710162142608</v>
+        <v>28.57052</v>
       </c>
       <c r="I10">
-        <v>0.09424285952162893</v>
+        <v>0.09249827668033554</v>
       </c>
       <c r="J10">
-        <v>0.09424285952162893</v>
+        <v>0.1107887709027403</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.2306558167639</v>
+        <v>17.32798133333333</v>
       </c>
       <c r="N10">
-        <v>17.2306558167639</v>
+        <v>51.983944</v>
       </c>
       <c r="O10">
-        <v>0.2239630444115153</v>
+        <v>0.2106411472599626</v>
       </c>
       <c r="P10">
-        <v>0.2239630444115153</v>
+        <v>0.2318682090082199</v>
       </c>
       <c r="Q10">
-        <v>150.2013777585473</v>
+        <v>165.0231457478756</v>
       </c>
       <c r="R10">
-        <v>150.2013777585473</v>
+        <v>1485.20831173088</v>
       </c>
       <c r="S10">
-        <v>0.02110691773251078</v>
+        <v>0.01948394311951532</v>
       </c>
       <c r="T10">
-        <v>0.02110691773251078</v>
+        <v>0.02568839388744039</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.71710162142608</v>
+        <v>9.523506666666668</v>
       </c>
       <c r="H11">
-        <v>8.71710162142608</v>
+        <v>28.57052</v>
       </c>
       <c r="I11">
-        <v>0.09424285952162893</v>
+        <v>0.09249827668033554</v>
       </c>
       <c r="J11">
-        <v>0.09424285952162893</v>
+        <v>0.1107887709027403</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.756814141479</v>
+        <v>22.593041</v>
       </c>
       <c r="N11">
-        <v>19.756814141479</v>
+        <v>45.186082</v>
       </c>
       <c r="O11">
-        <v>0.256797900791053</v>
+        <v>0.2746438829072707</v>
       </c>
       <c r="P11">
-        <v>0.256797900791053</v>
+        <v>0.2015471528177732</v>
       </c>
       <c r="Q11">
-        <v>172.2221565869003</v>
+        <v>215.1649765837734</v>
       </c>
       <c r="R11">
-        <v>172.2221565869003</v>
+        <v>1290.98985950264</v>
       </c>
       <c r="S11">
-        <v>0.02420136848970041</v>
+        <v>0.0254040858697184</v>
       </c>
       <c r="T11">
-        <v>0.02420136848970041</v>
+        <v>0.02232916133962787</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.389610839068045</v>
+        <v>0.8589773333333333</v>
       </c>
       <c r="H12">
-        <v>0.389610839068045</v>
+        <v>2.576932</v>
       </c>
       <c r="I12">
-        <v>0.004212184412780406</v>
+        <v>0.008342927224370099</v>
       </c>
       <c r="J12">
-        <v>0.004212184412780406</v>
+        <v>0.009992647280481435</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.56101255241274</v>
+        <v>7.502293333333333</v>
       </c>
       <c r="N12">
-        <v>6.56101255241274</v>
+        <v>22.50688</v>
       </c>
       <c r="O12">
-        <v>0.08527965280525798</v>
+        <v>0.09119883294046149</v>
       </c>
       <c r="P12">
-        <v>0.08527965280525798</v>
+        <v>0.1003892655001884</v>
       </c>
       <c r="Q12">
-        <v>2.556241605681503</v>
+        <v>6.44429992135111</v>
       </c>
       <c r="R12">
-        <v>2.556241605681503</v>
+        <v>57.99869929215999</v>
       </c>
       <c r="S12">
-        <v>0.0003592136242736325</v>
+        <v>0.0007608652261697568</v>
       </c>
       <c r="T12">
-        <v>0.0003592136242736325</v>
+        <v>0.001003154520889986</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.389610839068045</v>
+        <v>0.8589773333333333</v>
       </c>
       <c r="H13">
-        <v>0.389610839068045</v>
+        <v>2.576932</v>
       </c>
       <c r="I13">
-        <v>0.004212184412780406</v>
+        <v>0.008342927224370099</v>
       </c>
       <c r="J13">
-        <v>0.004212184412780406</v>
+        <v>0.009992647280481435</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.5415839943177</v>
+        <v>18.952812</v>
       </c>
       <c r="N13">
-        <v>17.5415839943177</v>
+        <v>56.858436</v>
       </c>
       <c r="O13">
-        <v>0.2280044704592995</v>
+        <v>0.2303927957149068</v>
       </c>
       <c r="P13">
-        <v>0.2280044704592995</v>
+        <v>0.2536103017179399</v>
       </c>
       <c r="Q13">
-        <v>6.834391258608708</v>
+        <v>16.280035910928</v>
       </c>
       <c r="R13">
-        <v>6.834391258608708</v>
+        <v>146.520323198352</v>
       </c>
       <c r="S13">
-        <v>0.000960396876512912</v>
+        <v>0.001922150327668634</v>
       </c>
       <c r="T13">
-        <v>0.000960396876512912</v>
+        <v>0.002534238291763849</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.389610839068045</v>
+        <v>0.8589773333333333</v>
       </c>
       <c r="H14">
-        <v>0.389610839068045</v>
+        <v>2.576932</v>
       </c>
       <c r="I14">
-        <v>0.004212184412780406</v>
+        <v>0.008342927224370099</v>
       </c>
       <c r="J14">
-        <v>0.004212184412780406</v>
+        <v>0.009992647280481435</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.8451969088596</v>
+        <v>15.88691333333333</v>
       </c>
       <c r="N14">
-        <v>15.8451969088596</v>
+        <v>47.66074</v>
       </c>
       <c r="O14">
-        <v>0.2059549315328741</v>
+        <v>0.1931233411773987</v>
       </c>
       <c r="P14">
-        <v>0.2059549315328741</v>
+        <v>0.2125850709558787</v>
       </c>
       <c r="Q14">
-        <v>6.173460462859182</v>
+        <v>13.64649844996444</v>
       </c>
       <c r="R14">
-        <v>6.173460462859182</v>
+        <v>122.81848604968</v>
       </c>
       <c r="S14">
-        <v>0.0008675201523380282</v>
+        <v>0.001611213980770234</v>
       </c>
       <c r="T14">
-        <v>0.0008675201523380282</v>
+        <v>0.002124287631158214</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.389610839068045</v>
+        <v>0.8589773333333333</v>
       </c>
       <c r="H15">
-        <v>0.389610839068045</v>
+        <v>2.576932</v>
       </c>
       <c r="I15">
-        <v>0.004212184412780406</v>
+        <v>0.008342927224370099</v>
       </c>
       <c r="J15">
-        <v>0.004212184412780406</v>
+        <v>0.009992647280481435</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.2306558167639</v>
+        <v>17.32798133333333</v>
       </c>
       <c r="N15">
-        <v>17.2306558167639</v>
+        <v>51.983944</v>
       </c>
       <c r="O15">
-        <v>0.2239630444115153</v>
+        <v>0.2106411472599626</v>
       </c>
       <c r="P15">
-        <v>0.2239630444115153</v>
+        <v>0.2318682090082199</v>
       </c>
       <c r="Q15">
-        <v>6.713250270462074</v>
+        <v>14.88434319775644</v>
       </c>
       <c r="R15">
-        <v>6.713250270462074</v>
+        <v>133.959088779808</v>
       </c>
       <c r="S15">
-        <v>0.0009433736447090308</v>
+        <v>0.001757363762047693</v>
       </c>
       <c r="T15">
-        <v>0.0009433736447090308</v>
+        <v>0.00231697722817609</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.389610839068045</v>
+        <v>0.8589773333333333</v>
       </c>
       <c r="H16">
-        <v>0.389610839068045</v>
+        <v>2.576932</v>
       </c>
       <c r="I16">
-        <v>0.004212184412780406</v>
+        <v>0.008342927224370099</v>
       </c>
       <c r="J16">
-        <v>0.004212184412780406</v>
+        <v>0.009992647280481435</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.756814141479</v>
+        <v>22.593041</v>
       </c>
       <c r="N16">
-        <v>19.756814141479</v>
+        <v>45.186082</v>
       </c>
       <c r="O16">
-        <v>0.256797900791053</v>
+        <v>0.2746438829072707</v>
       </c>
       <c r="P16">
-        <v>0.256797900791053</v>
+        <v>0.2015471528177732</v>
       </c>
       <c r="Q16">
-        <v>7.697468934973051</v>
+        <v>19.40691011007067</v>
       </c>
       <c r="R16">
-        <v>7.697468934973051</v>
+        <v>116.441460660424</v>
       </c>
       <c r="S16">
-        <v>0.001081680114946803</v>
+        <v>0.002291333927713782</v>
       </c>
       <c r="T16">
-        <v>0.001081680114946803</v>
+        <v>0.002013989608493297</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>49.9753222222374</v>
+        <v>1.194230333333333</v>
       </c>
       <c r="H17">
-        <v>49.9753222222374</v>
+        <v>3.582691</v>
       </c>
       <c r="I17">
-        <v>0.540296244816285</v>
+        <v>0.01159911487008805</v>
       </c>
       <c r="J17">
-        <v>0.540296244816285</v>
+        <v>0.01389270942266048</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.56101255241274</v>
+        <v>7.502293333333333</v>
       </c>
       <c r="N17">
-        <v>6.56101255241274</v>
+        <v>22.50688</v>
       </c>
       <c r="O17">
-        <v>0.08527965280525798</v>
+        <v>0.09119883294046149</v>
       </c>
       <c r="P17">
-        <v>0.08527965280525798</v>
+        <v>0.1003892655001884</v>
       </c>
       <c r="Q17">
-        <v>327.888716410971</v>
+        <v>8.959466268231111</v>
       </c>
       <c r="R17">
-        <v>327.888716410971</v>
+        <v>80.63519641408</v>
       </c>
       <c r="S17">
-        <v>0.04607627616991745</v>
+        <v>0.001057825739294383</v>
       </c>
       <c r="T17">
-        <v>0.04607627616991745</v>
+        <v>0.001394678894748431</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>49.9753222222374</v>
+        <v>1.194230333333333</v>
       </c>
       <c r="H18">
-        <v>49.9753222222374</v>
+        <v>3.582691</v>
       </c>
       <c r="I18">
-        <v>0.540296244816285</v>
+        <v>0.01159911487008805</v>
       </c>
       <c r="J18">
-        <v>0.540296244816285</v>
+        <v>0.01389270942266048</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>17.5415839943177</v>
+        <v>18.952812</v>
       </c>
       <c r="N18">
-        <v>17.5415839943177</v>
+        <v>56.858436</v>
       </c>
       <c r="O18">
-        <v>0.2280044704592995</v>
+        <v>0.2303927957149068</v>
       </c>
       <c r="P18">
-        <v>0.2280044704592995</v>
+        <v>0.2536103017179399</v>
       </c>
       <c r="Q18">
-        <v>876.6463124044693</v>
+        <v>22.634022992364</v>
       </c>
       <c r="R18">
-        <v>876.6463124044693</v>
+        <v>203.706206931276</v>
       </c>
       <c r="S18">
-        <v>0.1231899591904851</v>
+        <v>0.002672352502737934</v>
       </c>
       <c r="T18">
-        <v>0.1231899591904851</v>
+        <v>0.003523334228360591</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>49.9753222222374</v>
+        <v>1.194230333333333</v>
       </c>
       <c r="H19">
-        <v>49.9753222222374</v>
+        <v>3.582691</v>
       </c>
       <c r="I19">
-        <v>0.540296244816285</v>
+        <v>0.01159911487008805</v>
       </c>
       <c r="J19">
-        <v>0.540296244816285</v>
+        <v>0.01389270942266048</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.8451969088596</v>
+        <v>15.88691333333333</v>
       </c>
       <c r="N19">
-        <v>15.8451969088596</v>
+        <v>47.66074</v>
       </c>
       <c r="O19">
-        <v>0.2059549315328741</v>
+        <v>0.1931233411773987</v>
       </c>
       <c r="P19">
-        <v>0.2059549315328741</v>
+        <v>0.2125850709558787</v>
       </c>
       <c r="Q19">
-        <v>791.8688211950586</v>
+        <v>18.97263380570444</v>
       </c>
       <c r="R19">
-        <v>791.8688211950586</v>
+        <v>170.75370425134</v>
       </c>
       <c r="S19">
-        <v>0.111276676108607</v>
+        <v>0.002240059818411853</v>
       </c>
       <c r="T19">
-        <v>0.111276676108607</v>
+        <v>0.002953382618385683</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>49.9753222222374</v>
+        <v>1.194230333333333</v>
       </c>
       <c r="H20">
-        <v>49.9753222222374</v>
+        <v>3.582691</v>
       </c>
       <c r="I20">
-        <v>0.540296244816285</v>
+        <v>0.01159911487008805</v>
       </c>
       <c r="J20">
-        <v>0.540296244816285</v>
+        <v>0.01389270942266048</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.2306558167639</v>
+        <v>17.32798133333333</v>
       </c>
       <c r="N20">
-        <v>17.2306558167639</v>
+        <v>51.983944</v>
       </c>
       <c r="O20">
-        <v>0.2239630444115153</v>
+        <v>0.2106411472599626</v>
       </c>
       <c r="P20">
-        <v>0.2239630444115153</v>
+        <v>0.2318682090082199</v>
       </c>
       <c r="Q20">
-        <v>861.107576543245</v>
+        <v>20.69360092370044</v>
       </c>
       <c r="R20">
-        <v>861.107576543245</v>
+        <v>186.242408313304</v>
       </c>
       <c r="S20">
-        <v>0.1210063918731646</v>
+        <v>0.002443250863435438</v>
       </c>
       <c r="T20">
-        <v>0.1210063918731646</v>
+        <v>0.003221277652103906</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.194230333333333</v>
+      </c>
+      <c r="H21">
+        <v>3.582691</v>
+      </c>
+      <c r="I21">
+        <v>0.01159911487008805</v>
+      </c>
+      <c r="J21">
+        <v>0.01389270942266048</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>22.593041</v>
+      </c>
+      <c r="N21">
+        <v>45.186082</v>
+      </c>
+      <c r="O21">
+        <v>0.2746438829072707</v>
+      </c>
+      <c r="P21">
+        <v>0.2015471528177732</v>
+      </c>
+      <c r="Q21">
+        <v>26.98129488444366</v>
+      </c>
+      <c r="R21">
+        <v>161.887769306662</v>
+      </c>
+      <c r="S21">
+        <v>0.003185625946208444</v>
+      </c>
+      <c r="T21">
+        <v>0.002800036029061869</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>50.993427</v>
+      </c>
+      <c r="H22">
+        <v>101.986854</v>
+      </c>
+      <c r="I22">
+        <v>0.4952801824598739</v>
+      </c>
+      <c r="J22">
+        <v>0.3954775132863255</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>7.502293333333333</v>
+      </c>
+      <c r="N22">
+        <v>22.50688</v>
+      </c>
+      <c r="O22">
+        <v>0.09119883294046149</v>
+      </c>
+      <c r="P22">
+        <v>0.1003892655001884</v>
+      </c>
+      <c r="Q22">
+        <v>382.56764742592</v>
+      </c>
+      <c r="R22">
+        <v>2295.40588455552</v>
+      </c>
+      <c r="S22">
+        <v>0.04516897461887933</v>
+      </c>
+      <c r="T22">
+        <v>0.03970169708065519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>50.993427</v>
+      </c>
+      <c r="H23">
+        <v>101.986854</v>
+      </c>
+      <c r="I23">
+        <v>0.4952801824598739</v>
+      </c>
+      <c r="J23">
+        <v>0.3954775132863255</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>18.952812</v>
+      </c>
+      <c r="N23">
+        <v>56.858436</v>
+      </c>
+      <c r="O23">
+        <v>0.2303927957149068</v>
+      </c>
+      <c r="P23">
+        <v>0.2536103017179399</v>
+      </c>
+      <c r="Q23">
+        <v>966.4688351667238</v>
+      </c>
+      <c r="R23">
+        <v>5798.813011000343</v>
+      </c>
+      <c r="S23">
+        <v>0.1141089858991195</v>
+      </c>
+      <c r="T23">
+        <v>0.1002971714672056</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>50.993427</v>
+      </c>
+      <c r="H24">
+        <v>101.986854</v>
+      </c>
+      <c r="I24">
+        <v>0.4952801824598739</v>
+      </c>
+      <c r="J24">
+        <v>0.3954775132863255</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>15.88691333333333</v>
+      </c>
+      <c r="N24">
+        <v>47.66074</v>
+      </c>
+      <c r="O24">
+        <v>0.1931233411773987</v>
+      </c>
+      <c r="P24">
+        <v>0.2125850709558787</v>
+      </c>
+      <c r="Q24">
+        <v>810.1281553186599</v>
+      </c>
+      <c r="R24">
+        <v>4860.768931911959</v>
+      </c>
+      <c r="S24">
+        <v>0.09565016365560249</v>
+      </c>
+      <c r="T24">
+        <v>0.08407261522342796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>49.9753222222374</v>
-      </c>
-      <c r="H21">
-        <v>49.9753222222374</v>
-      </c>
-      <c r="I21">
-        <v>0.540296244816285</v>
-      </c>
-      <c r="J21">
-        <v>0.540296244816285</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>19.756814141479</v>
-      </c>
-      <c r="N21">
-        <v>19.756814141479</v>
-      </c>
-      <c r="O21">
-        <v>0.256797900791053</v>
-      </c>
-      <c r="P21">
-        <v>0.256797900791053</v>
-      </c>
-      <c r="Q21">
-        <v>987.3531528052697</v>
-      </c>
-      <c r="R21">
-        <v>987.3531528052697</v>
-      </c>
-      <c r="S21">
-        <v>0.1387469414741108</v>
-      </c>
-      <c r="T21">
-        <v>0.1387469414741108</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>50.993427</v>
+      </c>
+      <c r="H25">
+        <v>101.986854</v>
+      </c>
+      <c r="I25">
+        <v>0.4952801824598739</v>
+      </c>
+      <c r="J25">
+        <v>0.3954775132863255</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>17.32798133333333</v>
+      </c>
+      <c r="N25">
+        <v>51.983944</v>
+      </c>
+      <c r="O25">
+        <v>0.2106411472599626</v>
+      </c>
+      <c r="P25">
+        <v>0.2318682090082199</v>
+      </c>
+      <c r="Q25">
+        <v>883.6131511786959</v>
+      </c>
+      <c r="R25">
+        <v>5301.678907072176</v>
+      </c>
+      <c r="S25">
+        <v>0.1043263858484714</v>
+      </c>
+      <c r="T25">
+        <v>0.09169866270872477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>50.993427</v>
+      </c>
+      <c r="H26">
+        <v>101.986854</v>
+      </c>
+      <c r="I26">
+        <v>0.4952801824598739</v>
+      </c>
+      <c r="J26">
+        <v>0.3954775132863255</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>22.593041</v>
+      </c>
+      <c r="N26">
+        <v>45.186082</v>
+      </c>
+      <c r="O26">
+        <v>0.2746438829072707</v>
+      </c>
+      <c r="P26">
+        <v>0.2015471528177732</v>
+      </c>
+      <c r="Q26">
+        <v>1152.096586941507</v>
+      </c>
+      <c r="R26">
+        <v>4608.386347766028</v>
+      </c>
+      <c r="S26">
+        <v>0.1360256724378013</v>
+      </c>
+      <c r="T26">
+        <v>0.07970736680631195</v>
       </c>
     </row>
   </sheetData>
